--- a/Manual Test Cases/India.xlsx
+++ b/Manual Test Cases/India.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24613"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="563" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96140C02-D10F-4233-917A-7D5A1285F45E}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1035ABBE-B22E-429A-B0FF-91E5B9740C24}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Project Name</t>
   </si>
@@ -122,7 +122,8 @@
   <si>
     <t>Valid Url
 Valid API Response
-Test Data</t>
+Test Data
+Django</t>
   </si>
   <si>
     <t>City id: 2650225
@@ -258,6 +259,11 @@
 2. Click on Delhi button
 3. Check if the country name is displayed
 </t>
+  </si>
+  <si>
+    <t>Valid Url
+Valid API Response
+Test Data</t>
   </si>
   <si>
     <t>India</t>
@@ -332,13 +338,13 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -671,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1057,7 +1063,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>40</v>
@@ -1066,13 +1072,13 @@
         <v>41</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>5</v>

--- a/Manual Test Cases/India.xlsx
+++ b/Manual Test Cases/India.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="569" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1035ABBE-B22E-429A-B0FF-91E5B9740C24}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E143F697-3F45-4719-BB0D-95FBFB20ECD0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>Project Name</t>
   </si>
@@ -129,7 +129,8 @@
     <t>City id: 2650225
 Language: English
 Unit: Metric
-Url: 127.0.0.1</t>
+Url: http://127.0.0.1:8000/
+browser:Chrome</t>
   </si>
   <si>
     <t>User Should able to see buttons with city names and weather details</t>
@@ -157,13 +158,6 @@
 2. Click on Delhi button
 3. Check if the city name is displayed
 4. Check if the temperature reading is accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City id: 2650225
-Language: English
-Unit: Metric
-Url: 127.0.0.1
-</t>
   </si>
   <si>
     <t>User Should able to see buttons with city names
@@ -678,7 +672,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -689,8 +683,8 @@
     <col min="4" max="4" width="30.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
@@ -794,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="86.25" customHeight="1">
+    <row r="9" spans="1:14" ht="108.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -836,7 +830,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="90">
+    <row r="10" spans="1:14" ht="120">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -856,16 +850,16 @@
         <v>30</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>35</v>
@@ -878,36 +872,36 @@
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="90">
+    <row r="11" spans="1:14" ht="120">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="I11" s="6">
         <v>84</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>35</v>
@@ -920,21 +914,21 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="75" customHeight="1">
+    <row r="12" spans="1:14" ht="111" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>30</v>
@@ -943,13 +937,13 @@
         <v>31</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>35</v>
@@ -962,36 +956,36 @@
       </c>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="71.25" customHeight="1">
+    <row r="13" spans="1:14" ht="95.25" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>35</v>
@@ -1004,36 +998,36 @@
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="86.25" customHeight="1">
+    <row r="14" spans="1:14" ht="115.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>35</v>
@@ -1046,39 +1040,39 @@
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="72.75" customHeight="1">
+    <row r="15" spans="1:14" ht="113.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>5</v>
